--- a/Data/EC/NIT-9007952073.xlsx
+++ b/Data/EC/NIT-9007952073.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC679C60-ADD4-4476-9D14-FA97F840AD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C82E17E-C567-4F0C-89AB-D9A61C334BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B14C07C5-D8EB-448E-A2F7-D65197D51427}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5B56AFA8-EF39-4933-B17D-D3F84341FA64}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="101">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,265 +65,247 @@
     <t>CC</t>
   </si>
   <si>
-    <t>9296495</t>
-  </si>
-  <si>
-    <t>JAIME JIMENEZ JIMENEZ GUZMAN</t>
+    <t>1044927737</t>
+  </si>
+  <si>
+    <t>LAURA DANIELA FIGUEROA MARRUGO</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1044931192</t>
+  </si>
+  <si>
+    <t>CRISTIAN DAVID NUÑEZ OJEDA</t>
+  </si>
+  <si>
+    <t>1904</t>
   </si>
   <si>
     <t>1905</t>
   </si>
   <si>
-    <t>1044929178</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO SOLANO PLATA</t>
-  </si>
-  <si>
-    <t>32206340</t>
-  </si>
-  <si>
-    <t>BERTA LUCIA CUARTAS QUINTERO</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1044931192</t>
-  </si>
-  <si>
-    <t>CRISTIAN DAVID NUÑEZ OJEDA</t>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1069505905</t>
+  </si>
+  <si>
+    <t>HERMES DE JESUS RAMOS ALVAREZ</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>20288657</t>
+  </si>
+  <si>
+    <t>CARLOS FAUSTINO SERRANO CARPINTERO</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
   </si>
   <si>
     <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1044927737</t>
-  </si>
-  <si>
-    <t>LAURA DANIELA FIGUEROA MARRUGO</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1069505905</t>
-  </si>
-  <si>
-    <t>HERMES DE JESUS RAMOS ALVAREZ</t>
-  </si>
-  <si>
-    <t>20288657</t>
-  </si>
-  <si>
-    <t>CARLOS FAUSTINO SERRANO CARPINTERO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -422,7 +404,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -435,9 +419,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -637,23 +619,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,10 +663,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,7 +719,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2A3BFC-4CF8-995C-5003-74D389916F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D6CEAA-3218-FAA5-73B8-2723F3F4A3B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,8 +1070,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476C4EFC-6485-4A0E-A6E7-CEBF400C6505}">
-  <dimension ref="B2:J224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE12E89A-8E2C-4D00-93A6-49BEECAAC914}">
+  <dimension ref="B2:J221"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1113,7 +1095,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1158,7 +1140,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1190,12 +1172,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6558939</v>
+        <v>6463354</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1206,14 +1188,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="5">
         <v>73</v>
@@ -1243,13 +1225,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1266,10 +1248,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>874990</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1280,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1303,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>34963</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>874082</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1326,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>25334</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1349,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1372,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1395,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F22" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1418,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F23" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1441,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1464,13 +1446,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>33044</v>
@@ -1487,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1510,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>33044</v>
@@ -1533,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1556,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>33044</v>
@@ -1579,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1602,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G31" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1625,13 +1607,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>33044</v>
@@ -1648,19 +1630,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1671,19 +1653,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G34" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1694,13 +1676,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
         <v>33044</v>
@@ -1717,19 +1699,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1740,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F37" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G37" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1763,13 +1745,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18">
         <v>33044</v>
@@ -1786,19 +1768,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1809,19 +1791,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G40" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1832,13 +1814,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F41" s="18">
         <v>33044</v>
@@ -1855,19 +1837,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F42" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1878,19 +1860,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G43" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1901,13 +1883,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F44" s="18">
         <v>33044</v>
@@ -1924,19 +1906,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F45" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1947,19 +1929,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F46" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G46" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1970,13 +1952,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F47" s="18">
         <v>33044</v>
@@ -1993,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F48" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2016,19 +1998,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F49" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G49" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2039,13 +2021,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>33044</v>
@@ -2062,19 +2044,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F51" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2085,19 +2067,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F52" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G52" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2108,13 +2090,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F53" s="18">
         <v>33044</v>
@@ -2131,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F54" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2154,19 +2136,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G55" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2177,13 +2159,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F56" s="18">
         <v>33044</v>
@@ -2200,19 +2182,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F57" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2223,19 +2205,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G58" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2246,13 +2228,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18">
         <v>33044</v>
@@ -2269,19 +2251,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2292,19 +2274,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F61" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G61" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2315,13 +2297,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
         <v>33044</v>
@@ -2338,19 +2320,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F63" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2361,19 +2343,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G64" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2384,13 +2366,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F65" s="18">
         <v>33044</v>
@@ -2407,19 +2389,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2430,19 +2412,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G67" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2453,13 +2435,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>33044</v>
@@ -2476,19 +2458,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2499,19 +2481,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F70" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G70" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2522,13 +2504,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>33044</v>
@@ -2545,19 +2527,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F72" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2568,19 +2550,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F73" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G73" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2591,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F74" s="18">
         <v>33044</v>
@@ -2614,19 +2596,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="F75" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2637,19 +2619,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F76" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G76" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2660,13 +2642,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F77" s="18">
         <v>33044</v>
@@ -2683,19 +2665,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="F78" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2706,19 +2688,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="F79" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G79" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2729,13 +2711,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F80" s="18">
         <v>33044</v>
@@ -2752,19 +2734,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F81" s="18">
-        <v>33044</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>826116</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2775,19 +2757,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F82" s="18">
-        <v>33044</v>
+        <v>33125</v>
       </c>
       <c r="G82" s="18">
-        <v>826116</v>
+        <v>828116</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2798,19 +2780,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F83" s="18">
-        <v>23958</v>
+        <v>33044</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2821,13 +2803,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2844,19 +2826,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2867,19 +2849,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2890,13 +2872,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2913,19 +2895,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2936,19 +2918,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2959,19 +2941,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2982,13 +2964,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3005,19 +2987,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3028,19 +3010,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3051,13 +3033,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3074,19 +3056,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3097,19 +3079,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3120,13 +3102,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3143,19 +3125,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3166,19 +3148,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3189,13 +3171,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3212,19 +3194,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3235,19 +3217,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3258,13 +3240,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3281,19 +3263,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3304,19 +3286,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3327,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3350,19 +3332,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3373,19 +3355,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3396,13 +3378,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3419,19 +3401,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3442,19 +3424,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3465,13 +3447,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3488,19 +3470,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3511,19 +3493,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3534,13 +3516,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3557,19 +3539,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3580,19 +3562,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3603,13 +3585,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3626,19 +3608,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3649,19 +3631,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3672,13 +3654,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3695,19 +3677,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3718,19 +3700,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>59</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3741,13 +3723,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3764,19 +3746,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3787,19 +3769,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3810,13 +3792,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3833,19 +3815,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3856,19 +3838,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3879,13 +3861,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3902,19 +3884,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3925,19 +3907,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3948,13 +3930,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -3971,19 +3953,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3994,19 +3976,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4017,13 +3999,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4040,19 +4022,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4063,19 +4045,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4086,13 +4068,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4109,19 +4091,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G140" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4132,19 +4114,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F141" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4155,13 +4137,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4178,19 +4160,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G143" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4201,19 +4183,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4224,13 +4206,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4247,19 +4229,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4270,19 +4252,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F147" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G147" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4293,13 +4275,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4316,19 +4298,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F149" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G149" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4339,19 +4321,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G150" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4362,13 +4344,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4385,19 +4367,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F152" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G152" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4408,19 +4390,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>33044</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>826116</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4431,13 +4413,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4454,19 +4436,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G155" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4477,19 +4459,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F156" s="18">
-        <v>25396</v>
+        <v>33044</v>
       </c>
       <c r="G156" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4500,19 +4482,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F157" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4523,13 +4505,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F158" s="18">
         <v>33125</v>
@@ -4546,19 +4528,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F159" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G159" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4569,19 +4551,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F160" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4592,13 +4574,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F161" s="18">
         <v>33125</v>
@@ -4615,19 +4597,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F162" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G162" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4638,19 +4620,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="F163" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4661,13 +4643,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F164" s="18">
         <v>33125</v>
@@ -4684,19 +4666,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F165" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G165" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4707,19 +4689,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F166" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4730,13 +4712,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F167" s="18">
         <v>33125</v>
@@ -4753,19 +4735,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F168" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G168" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4776,19 +4758,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F169" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4799,13 +4781,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F170" s="18">
         <v>33125</v>
@@ -4822,19 +4804,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F171" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G171" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4845,19 +4827,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F172" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4868,13 +4850,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F173" s="18">
         <v>33125</v>
@@ -4891,19 +4873,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F174" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G174" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4914,19 +4896,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F175" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4937,13 +4919,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F176" s="18">
         <v>33125</v>
@@ -4960,19 +4942,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F177" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G177" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -4983,19 +4965,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F178" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G178" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5006,13 +4988,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F179" s="18">
         <v>33125</v>
@@ -5029,19 +5011,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F180" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G180" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5052,19 +5034,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F181" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G181" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5075,13 +5057,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F182" s="18">
         <v>33125</v>
@@ -5098,19 +5080,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F183" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G183" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5121,19 +5103,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F184" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G184" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5144,13 +5126,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F185" s="18">
         <v>33125</v>
@@ -5167,19 +5149,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F186" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G186" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5190,19 +5172,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F187" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5213,13 +5195,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F188" s="18">
         <v>33125</v>
@@ -5236,19 +5218,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F189" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G189" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5259,19 +5241,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F190" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G190" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5282,13 +5264,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F191" s="18">
         <v>33125</v>
@@ -5305,19 +5287,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F192" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G192" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5328,19 +5310,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F193" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G193" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5351,13 +5333,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F194" s="18">
         <v>33125</v>
@@ -5374,19 +5356,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F195" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G195" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5397,19 +5379,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F196" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G196" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5420,13 +5402,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F197" s="18">
         <v>33125</v>
@@ -5443,19 +5425,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F198" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G198" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5466,19 +5448,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F199" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G199" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5489,13 +5471,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F200" s="18">
         <v>33125</v>
@@ -5512,19 +5494,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F201" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G201" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5535,19 +5517,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F202" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G202" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5558,13 +5540,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F203" s="18">
         <v>33125</v>
@@ -5581,19 +5563,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F204" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G204" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5604,19 +5586,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F205" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G205" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5627,13 +5609,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F206" s="18">
         <v>33125</v>
@@ -5650,19 +5632,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F207" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G207" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5673,19 +5655,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F208" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5696,13 +5678,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F209" s="18">
         <v>33125</v>
@@ -5719,19 +5701,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F210" s="18">
-        <v>33125</v>
+        <v>33044</v>
       </c>
       <c r="G210" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5742,19 +5724,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F211" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5765,13 +5747,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F212" s="18">
         <v>33125</v>
@@ -5788,19 +5770,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F213" s="18">
-        <v>33125</v>
+        <v>25334</v>
       </c>
       <c r="G213" s="18">
-        <v>828116</v>
+        <v>826116</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5811,144 +5793,75 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F214" s="18">
-        <v>33125</v>
+        <v>23958</v>
       </c>
       <c r="G214" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
       <c r="J214" s="20"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B215" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F215" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G215" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B216" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D216" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F216" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G216" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B217" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F217" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G217" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B218" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D218" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E218" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F218" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G218" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H218" s="25"/>
-      <c r="I218" s="25"/>
-      <c r="J218" s="26"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B223" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C223" s="32"/>
-      <c r="H223" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B224" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C224" s="32"/>
-      <c r="H224" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
+      <c r="B215" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F215" s="24">
+        <v>25396</v>
+      </c>
+      <c r="G215" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H215" s="25"/>
+      <c r="I215" s="25"/>
+      <c r="J215" s="26"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B220" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C220" s="32"/>
+      <c r="H220" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B221" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C221" s="32"/>
+      <c r="H221" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="H224:J224"/>
-    <mergeCell ref="H223:J223"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="H221:J221"/>
+    <mergeCell ref="H220:J220"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
